--- a/medicine/Premiers secours et secourisme/Sauvetage/Sauvetage.xlsx
+++ b/medicine/Premiers secours et secourisme/Sauvetage/Sauvetage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sauvetage intègre toutes les opérations de secours visant à sauver des vies ou à prévenir des blessures.
 Les sauveteurs utilisent pour ce faire des chiens de sauvetage, des véhicules d'intervention (hélicoptères, bateaux rapides, ambulances…), des pinces hydrauliques de désincarcération. Les opérations de sauvetage sont réalisées par différents services comme le service incendie, le service Garde-côtes , les services nationaux de sauvetage en mer comme la RNLI ou la SNSM, l'aide médicale urgente.
@@ -516,13 +528,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sauvetage aquatique
-Dans le sauvetage aquatique on distingue deux différents pôles, le sauvetage en mer (considéré comme le sauvetage en côte dangereuse) et le sauvetage en eau douce (les piscines, lacs, etc). Dans les deux cas, les sauveteurs suivent une formation pour apprendre à effectuer de la prévention mais et surtout comment réagir face à une noyade. Le sauvetage en mer a été différencié il y a peu du sauvetage d'eau douce car ce dernier demande une connaissances supplémentaire sur des techniques spécifiques comme le filin ou encore l'utilisation du paddle[1]. De plus, le niveau physique demandé est plus important du fait de la difficulté à ramener une victime sur une mer agitée (vagues, houle, courant, baïne, etc.). Par conséquent, il est demandé au futur sauveteur en côte dangereuse d'effectuer un stage mer. Ce stage permet d’acquérir les compétences nécessaires pour pouvoir mettre en œuvre tous les moyens permettant le sauvetage d'une victime dans un milieu aquatique.
+          <t>Sauvetage aquatique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le sauvetage aquatique on distingue deux différents pôles, le sauvetage en mer (considéré comme le sauvetage en côte dangereuse) et le sauvetage en eau douce (les piscines, lacs, etc). Dans les deux cas, les sauveteurs suivent une formation pour apprendre à effectuer de la prévention mais et surtout comment réagir face à une noyade. Le sauvetage en mer a été différencié il y a peu du sauvetage d'eau douce car ce dernier demande une connaissances supplémentaire sur des techniques spécifiques comme le filin ou encore l'utilisation du paddle. De plus, le niveau physique demandé est plus important du fait de la difficulté à ramener une victime sur une mer agitée (vagues, houle, courant, baïne, etc.). Par conséquent, il est demandé au futur sauveteur en côte dangereuse d'effectuer un stage mer. Ce stage permet d’acquérir les compétences nécessaires pour pouvoir mettre en œuvre tous les moyens permettant le sauvetage d'une victime dans un milieu aquatique.
 Pour pouvoir être sauveteur aquatique, il faut passer le BNSSA c'est-à-dire le Brevet National de Sécurité et de Sauvetage Aquatique[réf. nécessaire].
-Sauvetage routier
-Sauvetage en montagne
-Sauvetage en incendie
-Sauvetage souterrain</t>
+</t>
         </is>
       </c>
     </row>
